--- a/src/predicciones/holt_winters/producto_127.xlsx
+++ b/src/predicciones/holt_winters/producto_127.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,762 +404,1576 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.070690465375708</v>
+        <v>1.987039177013601</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.281173974695026</v>
+        <v>0.9969448401445681</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>1.351464678644138</v>
+        <v>0.9968067051860245</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44932</v>
       </c>
       <c r="B5">
-        <v>1.148106374265028</v>
+        <v>0.9967635490614536</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44941</v>
       </c>
       <c r="B6">
-        <v>1.128698379003962</v>
+        <v>0.9967212261456687</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44947</v>
       </c>
       <c r="B7">
-        <v>1.257110468420316</v>
+        <v>1.00657186561109</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44948</v>
       </c>
       <c r="B8">
-        <v>1.075663835339702</v>
+        <v>0.9936857607622746</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44949</v>
       </c>
       <c r="B9">
-        <v>1.072939813289572</v>
+        <v>1.983791641031495</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44953</v>
       </c>
       <c r="B10">
-        <v>1.28342332260889</v>
+        <v>0.9936973041624618</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44954</v>
       </c>
       <c r="B11">
-        <v>1.353714026558003</v>
+        <v>0.9935591692039183</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44956</v>
       </c>
       <c r="B12">
-        <v>1.150355722178892</v>
+        <v>0.9935160130793476</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44957</v>
       </c>
       <c r="B13">
-        <v>1.130947726917827</v>
+        <v>0.9934736901635625</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44961</v>
       </c>
       <c r="B14">
-        <v>1.259359816334181</v>
+        <v>1.003324329628983</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44962</v>
       </c>
       <c r="B15">
-        <v>1.077913183253566</v>
+        <v>0.9904382247801683</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44964</v>
       </c>
       <c r="B16">
-        <v>1.075189161203436</v>
+        <v>1.980544105049388</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44967</v>
       </c>
       <c r="B17">
-        <v>1.285672670522755</v>
+        <v>0.9904497681803556</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44969</v>
       </c>
       <c r="B18">
-        <v>1.355963374471866</v>
+        <v>0.990311633221812</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44975</v>
       </c>
       <c r="B19">
-        <v>1.152605070092756</v>
+        <v>0.9902684770972413</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44976</v>
       </c>
       <c r="B20">
-        <v>1.133197074831691</v>
+        <v>0.9902261541814562</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44980</v>
       </c>
       <c r="B21">
-        <v>1.261609164248044</v>
+        <v>1.000076793646877</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44981</v>
       </c>
       <c r="B22">
-        <v>1.080162531167431</v>
+        <v>0.987190688798062</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44987</v>
       </c>
       <c r="B23">
-        <v>1.0774385091173</v>
+        <v>1.977296569067282</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44988</v>
       </c>
       <c r="B24">
-        <v>1.287922018436619</v>
+        <v>0.9872022321982495</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44990</v>
       </c>
       <c r="B25">
-        <v>1.358212722385731</v>
+        <v>0.9870640972397058</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44991</v>
       </c>
       <c r="B26">
-        <v>1.154854418006621</v>
+        <v>0.9870209411151351</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44995</v>
       </c>
       <c r="B27">
-        <v>1.135446422745555</v>
+        <v>0.98697861819935</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44997</v>
       </c>
       <c r="B28">
-        <v>1.263858512161909</v>
+        <v>0.9968292576647708</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44998</v>
       </c>
       <c r="B29">
-        <v>1.082411879081295</v>
+        <v>0.983943152815956</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45000</v>
       </c>
       <c r="B30">
-        <v>1.079687857031164</v>
+        <v>1.974049033085176</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45003</v>
       </c>
       <c r="B31">
-        <v>1.290171366350483</v>
+        <v>0.9839546962161433</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45004</v>
       </c>
       <c r="B32">
-        <v>1.360462070299595</v>
+        <v>0.9838165612575995</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45005</v>
       </c>
       <c r="B33">
-        <v>1.157103765920485</v>
+        <v>0.9837734051330288</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45007</v>
       </c>
       <c r="B34">
-        <v>1.137695770659419</v>
+        <v>0.9837310822172439</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45009</v>
       </c>
       <c r="B35">
-        <v>1.266107860075773</v>
+        <v>0.9935817216826646</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45011</v>
       </c>
       <c r="B36">
-        <v>1.084661226995159</v>
+        <v>0.9806956168338498</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45012</v>
       </c>
       <c r="B37">
-        <v>1.081937204945029</v>
+        <v>1.97080149710307</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45014</v>
       </c>
       <c r="B38">
-        <v>1.292420714264347</v>
+        <v>0.980707160234037</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45016</v>
       </c>
       <c r="B39">
-        <v>1.362711418213459</v>
+        <v>0.9805690252754935</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45020</v>
       </c>
       <c r="B40">
-        <v>1.159353113834349</v>
+        <v>0.9805258691509225</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45022</v>
       </c>
       <c r="B41">
-        <v>1.139945118573283</v>
+        <v>0.9804835462351377</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45026</v>
       </c>
       <c r="B42">
-        <v>1.268357207989637</v>
+        <v>0.9903341857005583</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45030</v>
       </c>
       <c r="B43">
-        <v>1.086910574909023</v>
+        <v>0.9774480808517435</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45038</v>
       </c>
       <c r="B44">
-        <v>1.084186552858893</v>
+        <v>1.967553961120963</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45042</v>
       </c>
       <c r="B45">
-        <v>1.294670062178211</v>
+        <v>0.9774596242519308</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45043</v>
       </c>
       <c r="B46">
-        <v>1.364960766127323</v>
+        <v>0.9773214892933872</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45046</v>
       </c>
       <c r="B47">
-        <v>1.161602461748213</v>
+        <v>0.9772783331688163</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45048</v>
       </c>
       <c r="B48">
-        <v>1.142194466487148</v>
+        <v>0.9772360102530314</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45049</v>
       </c>
       <c r="B49">
-        <v>1.270606555903501</v>
+        <v>0.9870866497184521</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45050</v>
       </c>
       <c r="B50">
-        <v>1.089159922822887</v>
+        <v>0.9742005448696373</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45052</v>
       </c>
       <c r="B51">
-        <v>1.086435900772757</v>
+        <v>1.964306425138858</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45057</v>
       </c>
       <c r="B52">
-        <v>1.296919410092076</v>
+        <v>0.9742120882698245</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45058</v>
       </c>
       <c r="B53">
-        <v>1.367210114041188</v>
+        <v>0.974073953311281</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45063</v>
       </c>
       <c r="B54">
-        <v>1.163851809662077</v>
+        <v>0.97403079718671</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45065</v>
       </c>
       <c r="B55">
-        <v>1.144443814401012</v>
+        <v>0.9739884742709252</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45066</v>
       </c>
       <c r="B56">
-        <v>1.272855903817366</v>
+        <v>0.983839113736346</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45073</v>
       </c>
       <c r="B57">
-        <v>1.091409270736752</v>
+        <v>0.970953008887531</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45075</v>
       </c>
       <c r="B58">
-        <v>1.088685248686621</v>
+        <v>1.961058889156751</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45077</v>
       </c>
       <c r="B59">
-        <v>1.29916875800594</v>
+        <v>0.9709645522877183</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45081</v>
       </c>
       <c r="B60">
-        <v>1.369459461955052</v>
+        <v>0.9708264173291747</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45083</v>
       </c>
       <c r="B61">
-        <v>1.166101157575942</v>
+        <v>0.970783261204604</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45085</v>
       </c>
       <c r="B62">
-        <v>1.146693162314876</v>
+        <v>0.9707409382888189</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45089</v>
       </c>
       <c r="B63">
-        <v>1.27510525173123</v>
+        <v>0.9805915777542398</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45091</v>
       </c>
       <c r="B64">
-        <v>1.093658618650616</v>
+        <v>0.9677054729054247</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45097</v>
       </c>
       <c r="B65">
-        <v>1.090934596600485</v>
+        <v>1.957811353174645</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45099</v>
       </c>
       <c r="B66">
-        <v>1.301418105919804</v>
+        <v>0.9677170163056122</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45106</v>
       </c>
       <c r="B67">
-        <v>1.371708809868916</v>
+        <v>0.9675788813470685</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45107</v>
       </c>
       <c r="B68">
-        <v>1.168350505489806</v>
+        <v>0.9675357252224978</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45108</v>
       </c>
       <c r="B69">
-        <v>1.14894251022874</v>
+        <v>0.9674934023067127</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45110</v>
       </c>
       <c r="B70">
-        <v>1.277354599645094</v>
+        <v>0.9773440417721335</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B71">
+        <v>0.9644579369233185</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B72">
+        <v>1.954563817192539</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B73">
+        <v>0.964469480323506</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B74">
+        <v>0.9643313453649622</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B75">
+        <v>0.9642881892403915</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B76">
+        <v>0.9642458663246064</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B77">
+        <v>0.9740965057900273</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B78">
+        <v>0.9612104009412125</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B79">
+        <v>1.951316281210433</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B80">
+        <v>0.9612219443413997</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B81">
+        <v>0.961083809382856</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B82">
+        <v>0.9610406532582852</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B83">
+        <v>0.9609983303425004</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B84">
+        <v>0.970848969807921</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B85">
+        <v>0.9579628649591062</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B86">
+        <v>1.948068745228326</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B87">
+        <v>0.9579744083592935</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B88">
+        <v>0.9578362734007499</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B89">
+        <v>0.957793117276179</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B90">
+        <v>0.9577507943603941</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B91">
+        <v>0.9676014338258148</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B92">
+        <v>0.954715328977</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B93">
+        <v>1.94482120924622</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B94">
+        <v>0.9547268723771872</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B95">
+        <v>0.9545887374186437</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B96">
+        <v>0.9545455812940727</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B97">
+        <v>0.9545032583782879</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B98">
+        <v>0.9643538978437087</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B99">
+        <v>0.9514677929948937</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B100">
+        <v>1.941573673264114</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B101">
+        <v>0.951479336395081</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B102">
+        <v>0.9513412014365374</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B103">
+        <v>0.9512980453119667</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B104">
+        <v>0.9512557223961816</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B105">
+        <v>0.9611063618616025</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B106">
+        <v>0.9482202570127874</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B107">
+        <v>1.938326137282008</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B108">
+        <v>0.9482318004129747</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B109">
+        <v>0.9480936654544312</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B110">
+        <v>0.9480505093298605</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B111">
+        <v>0.9480081864140754</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B112">
+        <v>0.9578588258794962</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B113">
+        <v>0.9449727210306812</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B114">
+        <v>1.935078601299901</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B115">
+        <v>0.9449842644308687</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B116">
+        <v>0.9448461294723249</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B117">
+        <v>0.9448029733477542</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B118">
+        <v>0.9447606504319691</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B119">
+        <v>0.95461128989739</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B120">
+        <v>0.9417251850485752</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>1.931831065317795</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B122">
+        <v>0.9417367284487624</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B123">
+        <v>0.9415985934902187</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B124">
+        <v>0.941555437365648</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B125">
+        <v>0.9415131144498631</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B126">
+        <v>0.9513637539152837</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B127">
+        <v>0.9384776490664689</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B128">
+        <v>1.928583529335689</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B129">
+        <v>0.9384891924666562</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B130">
+        <v>0.9383510575081127</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B131">
+        <v>0.9383079013835417</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B132">
+        <v>0.9382655784677568</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B133">
+        <v>0.9481162179331775</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B134">
+        <v>0.9352301130843627</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B135">
+        <v>1.925335993353583</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B136">
+        <v>0.9352416564845499</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B137">
+        <v>0.9351035215260064</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B138">
+        <v>0.9350603654014354</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B139">
+        <v>0.9350180424856506</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B140">
+        <v>0.9448686819510712</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B141">
+        <v>0.9319825771022564</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B142">
+        <v>1.922088457371477</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B143">
+        <v>0.9319941205024437</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B144">
+        <v>0.9318559855439001</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
